--- a/on-demand_attributes.xlsx
+++ b/on-demand_attributes.xlsx
@@ -15,6 +15,8 @@
     <sheet state="visible" name="on_cancel" sheetId="10" r:id="rId13"/>
     <sheet state="visible" name="status" sheetId="11" r:id="rId14"/>
     <sheet state="visible" name="on_status" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="update" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="on_update" sheetId="14" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="291">
   <si>
     <t>Path</t>
   </si>
@@ -171,102 +173,99 @@
     <t>Describes the GPS co-ordinates of this location.</t>
   </si>
   <si>
-    <t>message.intent.fulfillment.vehicle.category</t>
+    <t>on_search</t>
+  </si>
+  <si>
+    <t>context.bpp_id</t>
+  </si>
+  <si>
+    <t>BPP</t>
+  </si>
+  <si>
+    <t>api.example-bpp.com</t>
+  </si>
+  <si>
+    <t>Describes subscriber ID of the BPP</t>
+  </si>
+  <si>
+    <t>context.bpp_uri</t>
+  </si>
+  <si>
+    <t>https://api.example-bpp.com/dobpp/7f7896dd-787e-4a0b-8675-e9e6fe93bb8f</t>
+  </si>
+  <si>
+    <t>Describes subscriber URL of the BPP for accepting calls from BAPs.</t>
+  </si>
+  <si>
+    <t>message.catalog.descriptor.name</t>
+  </si>
+  <si>
+    <t>Mobility Servies BPP</t>
+  </si>
+  <si>
+    <t>Describes the catalog name.</t>
+  </si>
+  <si>
+    <t>message.catalog.providers.id</t>
+  </si>
+  <si>
+    <t>450dec0f</t>
+  </si>
+  <si>
+    <t>Describes the unique Id of the provider.</t>
+  </si>
+  <si>
+    <t>message.catalog.providers.locations.id</t>
   </si>
   <si>
     <t>optional</t>
   </si>
   <si>
+    <t>d3ebf05b</t>
+  </si>
+  <si>
+    <t>Indicates provider locations where this item is available.</t>
+  </si>
+  <si>
+    <t>message.catalog.providers.locations.gps</t>
+  </si>
+  <si>
+    <t>28.707358, 77.180910</t>
+  </si>
+  <si>
+    <t>message.catalog.providers.fulfillments.id</t>
+  </si>
+  <si>
+    <t>b68bb35b</t>
+  </si>
+  <si>
+    <t>Describes the unique reference ID to the fulfillment of an order</t>
+  </si>
+  <si>
+    <t>message.catalog.providers.fulfillments.type</t>
+  </si>
+  <si>
+    <t>DELIVERY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A code that describes the mode of fulfillment. This is typically set when there are multiple ways an order can be fulfilled. </t>
+  </si>
+  <si>
+    <t>message.catalog.providers.fulfillments.stops.type</t>
+  </si>
+  <si>
+    <t>message.catalog.providers.fulfillments.stops.location.gps</t>
+  </si>
+  <si>
+    <t>message.catalog.providers.fulfillments.vehicle.category</t>
+  </si>
+  <si>
     <t>CAB</t>
   </si>
   <si>
     <t>Describes the vehicle category.</t>
   </si>
   <si>
-    <t>on_search</t>
-  </si>
-  <si>
-    <t>context.bpp_id</t>
-  </si>
-  <si>
-    <t>BPP</t>
-  </si>
-  <si>
-    <t>api.example-bpp.com</t>
-  </si>
-  <si>
-    <t>Describes subscriber ID of the BPP</t>
-  </si>
-  <si>
-    <t>context.bpp_uri</t>
-  </si>
-  <si>
-    <t>https://api.example-bpp.com/dobpp/7f7896dd-787e-4a0b-8675-e9e6fe93bb8f</t>
-  </si>
-  <si>
-    <t>Describes subscriber URL of the BPP for accepting calls from BAPs.</t>
-  </si>
-  <si>
-    <t>message.catalog.descriptor.name</t>
-  </si>
-  <si>
-    <t>Mobility Servies BPP</t>
-  </si>
-  <si>
-    <t>Describes the catalog name.</t>
-  </si>
-  <si>
-    <t>message.catalog.providers.id</t>
-  </si>
-  <si>
-    <t>450dec0f</t>
-  </si>
-  <si>
-    <t>Describes the unique Id of the provider.</t>
-  </si>
-  <si>
-    <t>message.catalog.providers.locations.id</t>
-  </si>
-  <si>
-    <t>d3ebf05b</t>
-  </si>
-  <si>
-    <t>Indicates provider locations where this item is available.</t>
-  </si>
-  <si>
-    <t>message.catalog.providers.locations.gps</t>
-  </si>
-  <si>
-    <t>28.707358, 77.180910</t>
-  </si>
-  <si>
-    <t>message.catalog.providers.fulfillments.id</t>
-  </si>
-  <si>
-    <t>b68bb35b</t>
-  </si>
-  <si>
-    <t>Describes the unique reference ID to the fulfillment of an order</t>
-  </si>
-  <si>
-    <t>message.catalog.providers.fulfillments.type</t>
-  </si>
-  <si>
-    <t>DELIVERY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A code that describes the mode of fulfillment. This is typically set when there are multiple ways an order can be fulfilled. </t>
-  </si>
-  <si>
-    <t>message.catalog.providers.fulfillments.stops.type</t>
-  </si>
-  <si>
-    <t>message.catalog.providers.fulfillments.stops.location.gps</t>
-  </si>
-  <si>
-    <t>message.catalog.providers.fulfillments.vehicle.category</t>
-  </si>
-  <si>
     <t>message.catalog.providers.items.id</t>
   </si>
   <si>
@@ -510,6 +509,15 @@
     <t>Describes vehicle category</t>
   </si>
   <si>
+    <t>Describes customer phone</t>
+  </si>
+  <si>
+    <t>Joe Adams</t>
+  </si>
+  <si>
+    <t>Describes person name</t>
+  </si>
+  <si>
     <t>on_init</t>
   </si>
   <si>
@@ -597,6 +605,9 @@
     <t>Describes the percentage value for cancellation fee</t>
   </si>
   <si>
+    <t>message.order.cancellation_terms.cancellation_fee.amount.currency</t>
+  </si>
+  <si>
     <t>confirm</t>
   </si>
   <si>
@@ -678,6 +689,15 @@
     <t>Describes the contact number of the agent</t>
   </si>
   <si>
+    <t>message.order.fulfillments.state.descriptor.code</t>
+  </si>
+  <si>
+    <t>RIDE_ASSIGNED</t>
+  </si>
+  <si>
+    <t>Physical description of something.</t>
+  </si>
+  <si>
     <t>INTERMEDIATE_STOP</t>
   </si>
   <si>
@@ -714,42 +734,6 @@
     <t>Describe the Payment type</t>
   </si>
   <si>
-    <t>message.order.payments.tags.descriptor.code</t>
-  </si>
-  <si>
-    <t>SETTLEMENT_DETAILS</t>
-  </si>
-  <si>
-    <t>Physical description of something.</t>
-  </si>
-  <si>
-    <t>message.order.payments.tags.display</t>
-  </si>
-  <si>
-    <t>Indicates the display properties of the tag group.</t>
-  </si>
-  <si>
-    <t>message.order.payments.tags.list.descriptor.code</t>
-  </si>
-  <si>
-    <t>SETTLEMENT_TYPE</t>
-  </si>
-  <si>
-    <t>Description of the Tag, can be used to store detailed information.</t>
-  </si>
-  <si>
-    <t>message.order.payments.tags.list.value</t>
-  </si>
-  <si>
-    <t>UPI</t>
-  </si>
-  <si>
-    <t>The value of the tag. This set by the BPP and rendered as-is by the BAP.</t>
-  </si>
-  <si>
-    <t>message.order.cancellation_terms.cancellation_fee.amount.currency</t>
-  </si>
-  <si>
     <t>message.order.cancellation_terms.cancellation_fee.amount.value</t>
   </si>
   <si>
@@ -783,6 +767,24 @@
     <t>Describes the Short description for cancellaion</t>
   </si>
   <si>
+    <t>message.descriptor.name</t>
+  </si>
+  <si>
+    <t>Ride Cancellation</t>
+  </si>
+  <si>
+    <t>Describes the name for cancellaion</t>
+  </si>
+  <si>
+    <t>message.descriptor.code</t>
+  </si>
+  <si>
+    <t>SOFT_CANCEL</t>
+  </si>
+  <si>
+    <t>Describes the code for cancellaion</t>
+  </si>
+  <si>
     <t>on_cancel</t>
   </si>
   <si>
@@ -799,9 +801,6 @@
   </si>
   <si>
     <t>Contact number of the agent</t>
-  </si>
-  <si>
-    <t>message.order.fulfillments.state.descriptor.code</t>
   </si>
   <si>
     <t>DRIVER_ENROUTE</t>
@@ -884,13 +883,28 @@
   </si>
   <si>
     <t>Payment type</t>
+  </si>
+  <si>
+    <t>Describes the unique order id</t>
+  </si>
+  <si>
+    <t>John Adam</t>
+  </si>
+  <si>
+    <t>message.order.update_target</t>
+  </si>
+  <si>
+    <t>order.fulfillment.agent</t>
+  </si>
+  <si>
+    <t>Describes the target for update</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -921,16 +935,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
@@ -946,14 +950,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -987,7 +996,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1004,21 +1013,6 @@
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1045,15 +1039,31 @@
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1064,15 +1074,30 @@
     <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,6 +1120,14 @@
 </file>
 
 <file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1621,26 +1654,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
+    <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
@@ -2632,7 +2646,6 @@
     <row r="1004" ht="15.75" customHeight="1"/>
     <row r="1005" ht="15.75" customHeight="1"/>
     <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E6"/>
@@ -2900,7 +2913,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -2909,18 +2922,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -2929,18 +2942,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -2949,39 +2962,39 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>82</v>
+        <v>51</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="F16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="6" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="13" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="18" t="s">
-        <v>111</v>
-      </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
@@ -2989,18 +3002,18 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -3009,18 +3022,18 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -3029,38 +3042,38 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F19" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>255</v>
+      <c r="F20" s="15" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -3069,18 +3082,18 @@
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>120</v>
+        <v>61</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -3089,58 +3102,58 @@
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>158</v>
+        <v>51</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="16" t="s">
+      <c r="F24" s="11" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
@@ -3149,18 +3162,18 @@
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="1">
-        <v>9.898657512E9</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>157</v>
+        <v>51</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
@@ -3169,18 +3182,18 @@
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>143</v>
+        <v>51</v>
+      </c>
+      <c r="E26" s="1">
+        <v>9.898657512E9</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
@@ -3189,18 +3202,18 @@
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="1">
-        <v>7.845981268E9</v>
+        <v>51</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>126</v>
+        <v>219</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
@@ -3209,18 +3222,18 @@
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>161</v>
+        <v>51</v>
+      </c>
+      <c r="E28" s="1">
+        <v>7.845981268E9</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
@@ -3229,78 +3242,78 @@
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>227</v>
+        <v>51</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="F31" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="F30" s="20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="23" t="s">
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="F32" s="11" t="s">
         <v>262</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
@@ -3309,18 +3322,18 @@
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>92</v>
+        <v>51</v>
+      </c>
+      <c r="E33" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
@@ -3329,18 +3342,18 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>131</v>
+        <v>51</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>264</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
@@ -3349,13 +3362,13 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>94</v>
+        <v>130</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -3369,18 +3382,18 @@
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="1">
-        <v>120.0</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>92</v>
+        <v>51</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
@@ -3389,38 +3402,38 @@
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>197</v>
+        <v>51</v>
+      </c>
+      <c r="E37" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>229</v>
+        <v>136</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
@@ -3429,18 +3442,18 @@
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>267</v>
+        <v>51</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>268</v>
+        <v>149</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
@@ -3449,18 +3462,18 @@
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" s="33" t="s">
-        <v>269</v>
+        <v>150</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
@@ -3469,18 +3482,18 @@
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="F41" s="33" t="s">
-        <v>271</v>
+        <v>51</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>7</v>
@@ -3489,18 +3502,18 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>177</v>
+        <v>90</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>178</v>
+        <v>269</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>7</v>
@@ -3509,18 +3522,18 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>180</v>
+        <v>51</v>
+      </c>
+      <c r="E43" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>272</v>
+        <v>177</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>7</v>
@@ -3529,42 +3542,175 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>274</v>
+        <v>51</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="53" ht="15.75" customHeight="1"/>
     <row r="54" ht="15.75" customHeight="1"/>
     <row r="55" ht="15.75" customHeight="1"/>
@@ -4481,6 +4627,8 @@
     <row r="966" ht="15.75" customHeight="1"/>
     <row r="967" ht="15.75" customHeight="1"/>
     <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E6"/>
@@ -4522,7 +4670,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -4702,7 +4850,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -4750,7 +4898,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -4759,18 +4907,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -4779,18 +4927,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="s">
-        <v>244</v>
+      <c r="A15" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -4799,13 +4947,13 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>245</v>
+        <v>51</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -5829,7 +5977,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -6009,7 +6157,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -6057,7 +6205,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -6066,18 +6214,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -6086,18 +6234,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -6106,38 +6254,38 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>82</v>
+        <v>51</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>232</v>
+      <c r="F16" s="11" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="18" t="s">
-        <v>111</v>
+      <c r="A17" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -6146,18 +6294,18 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>232</v>
+        <v>51</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -6166,18 +6314,18 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -6186,98 +6334,98 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E19" s="5">
         <v>60.0</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>271</v>
+      <c r="F19" s="11" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1">
         <v>176.0</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>209</v>
+      <c r="F20" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E21" s="1">
         <v>50.0</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>210</v>
+      <c r="F21" s="15" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -6286,18 +6434,18 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
@@ -6306,18 +6454,18 @@
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>141</v>
+        <v>61</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
@@ -6326,18 +6474,18 @@
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>120</v>
+        <v>70</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
@@ -6346,38 +6494,38 @@
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>158</v>
+      <c r="F27" s="11" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="11" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
@@ -6386,58 +6534,58 @@
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
@@ -6446,38 +6594,38 @@
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>227</v>
+        <v>232</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
@@ -6486,18 +6634,18 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E34" s="1">
         <v>9.898657512E9</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
@@ -6506,10 +6654,10 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>257</v>
@@ -6517,7 +6665,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
@@ -6526,7 +6674,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E36" s="1">
         <v>7.845981268E9</v>
@@ -6537,7 +6685,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
@@ -6546,18 +6694,18 @@
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>281</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
@@ -6566,38 +6714,38 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>232</v>
+        <v>259</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="F39" s="11" t="s">
         <v>262</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
@@ -6606,58 +6754,58 @@
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E40" s="1">
         <v>60.0</v>
       </c>
-      <c r="F40" s="16" t="s">
-        <v>94</v>
+      <c r="F40" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>7</v>
@@ -6666,18 +6814,18 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>7</v>
@@ -6686,38 +6834,38 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E44" s="1">
         <v>120.0</v>
       </c>
-      <c r="F44" s="16" t="s">
-        <v>135</v>
+      <c r="F44" s="11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>284</v>
+        <v>136</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
@@ -6726,18 +6874,18 @@
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>146</v>
+        <v>51</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>7</v>
@@ -6746,18 +6894,18 @@
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>285</v>
+        <v>51</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>7</v>
@@ -6766,18 +6914,18 @@
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>286</v>
+        <v>147</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
@@ -6786,58 +6934,58 @@
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>177</v>
+        <v>150</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="5" t="s">
+      <c r="F51" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>7</v>
@@ -6846,18 +6994,18 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>232</v>
+        <v>184</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
@@ -6866,18 +7014,18 @@
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E53" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>234</v>
+        <v>51</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>7</v>
@@ -6886,37 +7034,75 @@
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="F54" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
+      <c r="B57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="58" ht="15.75" customHeight="1"/>
     <row r="59" ht="15.75" customHeight="1"/>
     <row r="60" ht="15.75" customHeight="1"/>
@@ -7815,10 +8001,1541 @@
     <row r="953" ht="15.75" customHeight="1"/>
     <row r="954" ht="15.75" customHeight="1"/>
     <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E6"/>
+    <hyperlink r:id="rId2" ref="E11"/>
+    <hyperlink r:id="rId3" ref="E13"/>
+    <hyperlink r:id="rId4" ref="E14"/>
+  </hyperlinks>
+  <drawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="33.63"/>
+    <col customWidth="1" min="2" max="2" width="17.13"/>
+    <col customWidth="1" min="5" max="5" width="26.13"/>
+    <col customWidth="1" min="6" max="6" width="75.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E6"/>
+    <hyperlink r:id="rId2" ref="E11"/>
+    <hyperlink r:id="rId3" ref="E13"/>
+    <hyperlink r:id="rId4" ref="E14"/>
+    <hyperlink r:id="rId5" ref="A15"/>
+  </hyperlinks>
+  <drawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="38.5"/>
+    <col customWidth="1" min="2" max="2" width="13.25"/>
+    <col customWidth="1" min="5" max="5" width="40.0"/>
+    <col customWidth="1" min="6" max="6" width="60.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="1">
+        <v>176.0</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="1">
+        <v>9.898657512E9</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="1">
+        <v>7.845981268E9</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E6"/>
@@ -8041,7 +9758,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -8089,7 +9806,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -8098,18 +9815,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -8118,18 +9835,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -8138,78 +9855,78 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F17" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="13" t="s">
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -8218,18 +9935,18 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>73</v>
+        <v>51</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -8238,18 +9955,18 @@
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>77</v>
+        <v>51</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -8258,9 +9975,9 @@
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -8269,7 +9986,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -8278,10 +9995,10 @@
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>48</v>
@@ -8289,7 +10006,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -8298,193 +10015,193 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>52</v>
+        <v>78</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="12" t="s">
+      <c r="F24" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="12" t="s">
+      <c r="F25" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="12" t="s">
+      <c r="F26" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="12">
+        <v>60.0</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="17">
-        <v>60.0</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="12">
+        <v>176.0</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="17">
-        <v>176.0</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="12">
+        <v>50.0</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="17">
-        <v>50.0</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -9480,7 +11197,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -9660,7 +11377,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -9708,7 +11425,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -9717,18 +11434,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -9737,39 +11454,39 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="18" t="s">
-        <v>106</v>
-      </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
@@ -9777,13 +11494,13 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -10803,7 +12520,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -10983,7 +12700,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -11031,7 +12748,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -11040,18 +12757,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -11060,18 +12777,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -11080,39 +12797,39 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="F16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="6" t="s">
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="13" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="18" t="s">
-        <v>111</v>
-      </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
@@ -11120,18 +12837,18 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -11140,18 +12857,18 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -11160,98 +12877,98 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E19" s="5">
         <v>60.0</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1">
         <v>176.0</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>96</v>
+      <c r="F20" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="19" t="s">
-        <v>115</v>
+      <c r="A21" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E21" s="1">
         <v>50.0</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>116</v>
+      <c r="F21" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -11260,18 +12977,18 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
@@ -11280,38 +12997,38 @@
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>120</v>
+        <v>70</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>76</v>
+        <v>51</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
@@ -11320,7 +13037,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>44</v>
@@ -11331,19 +13048,19 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>48</v>
@@ -11351,7 +13068,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
@@ -11360,18 +13077,18 @@
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
@@ -11380,58 +13097,58 @@
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E30" s="1">
         <v>60.0</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>94</v>
+      <c r="F30" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
@@ -11440,18 +13157,18 @@
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
@@ -11460,33 +13177,33 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E34" s="1">
         <v>120.0</v>
       </c>
-      <c r="F34" s="16" t="s">
-        <v>135</v>
+      <c r="F34" s="11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1"/>
@@ -12474,7 +14191,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -12654,7 +14371,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -12702,7 +14419,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -12711,18 +14428,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -12731,58 +14448,58 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -12794,15 +14511,15 @@
         <v>9</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -12816,13 +14533,13 @@
       <c r="E18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>146</v>
+      <c r="F18" s="11" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -12834,15 +14551,15 @@
         <v>9</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -12854,15 +14571,15 @@
         <v>9</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -12873,18 +14590,18 @@
       <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>120</v>
+      <c r="E21" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B22" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -12893,18 +14610,18 @@
       <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B23" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -12913,18 +14630,18 @@
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="18">
         <v>9.898657512E9</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -12933,18 +14650,18 @@
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>158</v>
+      <c r="F24" s="15" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -12953,55 +14670,93 @@
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="20" t="s">
+      <c r="E25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="F26" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="24" t="s">
+      <c r="E27" s="24">
+        <v>9.876556789E9</v>
+      </c>
+      <c r="F27" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
     <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
@@ -14005,7 +15760,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -14185,7 +15940,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -14233,7 +15988,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -14242,18 +15997,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -14262,18 +16017,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -14282,39 +16037,39 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>163</v>
+        <v>51</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="F16" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="26" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="13" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="18" t="s">
-        <v>111</v>
-      </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
@@ -14322,18 +16077,18 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>86</v>
+        <v>51</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -14342,18 +16097,18 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>91</v>
+        <v>51</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -14362,98 +16117,98 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E19" s="5">
         <v>60.0</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>94</v>
+      <c r="F19" s="27" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1">
         <v>176.0</v>
       </c>
-      <c r="F20" s="27" t="s">
-        <v>96</v>
+      <c r="F20" s="28" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="19" t="s">
-        <v>165</v>
+      <c r="A21" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E21" s="1">
         <v>50.0</v>
       </c>
-      <c r="F21" s="27" t="s">
-        <v>116</v>
+      <c r="F21" s="28" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>100</v>
+        <v>51</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="29" t="s">
         <v>119</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -14462,18 +16217,18 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
@@ -14482,58 +16237,58 @@
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>169</v>
+        <v>61</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>170</v>
+      <c r="F27" s="28" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
@@ -14542,38 +16297,38 @@
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="28" t="s">
-        <v>158</v>
+      <c r="F28" s="29" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
@@ -14582,98 +16337,98 @@
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E31" s="1">
         <v>60.0</v>
       </c>
-      <c r="F31" s="28" t="s">
-        <v>94</v>
+      <c r="F31" s="29" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="30" t="s">
+      <c r="F33" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="27" t="s">
         <v>134</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
@@ -14682,18 +16437,18 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E35" s="1">
         <v>120.0</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
@@ -14702,18 +16457,18 @@
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>172</v>
+        <v>51</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
@@ -14722,18 +16477,18 @@
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>146</v>
+        <v>51</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
@@ -14742,18 +16497,18 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>173</v>
+        <v>51</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
@@ -14762,18 +16517,18 @@
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>174</v>
+        <v>51</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
@@ -14782,72 +16537,72 @@
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="14" t="s">
         <v>176</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="30" t="s">
+      <c r="F41" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="30" t="s">
+      <c r="F42" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F43" s="27" t="s">
+      <c r="F43" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -14862,37 +16617,75 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F44" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="F44" s="31" t="s">
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="19" t="s">
+      <c r="B45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="1">
-        <v>2.0</v>
       </c>
       <c r="F45" s="32" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
     <row r="48" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
@@ -15811,6 +17604,7 @@
     <row r="963" ht="15.75" customHeight="1"/>
     <row r="964" ht="15.75" customHeight="1"/>
     <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E6"/>
@@ -15852,7 +17646,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -16032,7 +17826,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -16080,7 +17874,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -16089,18 +17883,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -16109,18 +17903,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="s">
-        <v>192</v>
+      <c r="A15" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -16129,39 +17923,39 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="18" t="s">
-        <v>106</v>
-      </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
@@ -16169,18 +17963,18 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -16192,15 +17986,15 @@
         <v>9</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -16211,16 +18005,16 @@
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>197</v>
+      <c r="E19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -16234,13 +18028,13 @@
       <c r="E20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>146</v>
+      <c r="F20" s="11" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -16252,15 +18046,15 @@
         <v>9</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -16272,15 +18066,15 @@
         <v>9</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -16289,38 +18083,38 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>120</v>
+        <v>70</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
@@ -16329,18 +18123,18 @@
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E25" s="1">
         <v>9.898657512E9</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>199</v>
+      <c r="F25" s="14" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
@@ -16349,7 +18143,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>44</v>
@@ -16360,27 +18154,27 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="F27" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="19" t="s">
-        <v>200</v>
+      <c r="A28" s="14" t="s">
+        <v>203</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
@@ -16389,18 +18183,18 @@
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="19" t="s">
-        <v>203</v>
+      <c r="A29" s="14" t="s">
+        <v>206</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
@@ -16409,18 +18203,18 @@
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E29" s="2">
         <v>232312.0</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
@@ -16429,13 +18223,13 @@
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1"/>
@@ -17435,7 +19229,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -17615,7 +19409,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -17663,7 +19457,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -17672,18 +19466,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -17692,18 +19486,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -17712,18 +19506,18 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -17732,19 +19526,19 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="13" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="18" t="s">
-        <v>111</v>
-      </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
@@ -17752,18 +19546,18 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -17772,18 +19566,18 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -17792,98 +19586,98 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E19" s="5">
         <v>60.0</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1">
         <v>176.0</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>209</v>
+      <c r="F20" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E21" s="1">
         <v>50.0</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>210</v>
+      <c r="F21" s="15" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -17892,18 +19686,18 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>168</v>
+        <v>214</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
@@ -17912,18 +19706,18 @@
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
@@ -17932,18 +19726,18 @@
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>120</v>
+        <v>70</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
@@ -17952,38 +19746,38 @@
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>168</v>
+        <v>214</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
@@ -17992,18 +19786,18 @@
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E29" s="1">
         <v>9.898657512E9</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>213</v>
+      <c r="F29" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
@@ -18012,18 +19806,18 @@
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>215</v>
+        <v>142</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
@@ -18032,77 +19826,77 @@
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E31" s="1">
         <v>7.845981268E9</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>217</v>
+      <c r="F31" s="14" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="F32" s="20" t="s">
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
     <row r="35">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="14" t="s">
         <v>203</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -18112,38 +19906,38 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="2">
+        <v>51</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="2">
         <v>232312.0</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>161</v>
+      <c r="F36" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
@@ -18152,18 +19946,18 @@
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>221</v>
+        <v>51</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
@@ -18172,18 +19966,18 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
@@ -18192,58 +19986,58 @@
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>94</v>
+        <v>51</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>129</v>
+        <v>51</v>
+      </c>
+      <c r="E41" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>7</v>
@@ -18252,18 +20046,18 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>132</v>
+        <v>51</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>7</v>
@@ -18272,13 +20066,13 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>94</v>
+        <v>130</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -18288,22 +20082,22 @@
       <c r="B44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="1">
-        <v>120.0</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>135</v>
+        <v>51</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
@@ -18312,38 +20106,38 @@
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>138</v>
+        <v>51</v>
+      </c>
+      <c r="E45" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>172</v>
+        <v>51</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>7</v>
@@ -18352,18 +20146,18 @@
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>146</v>
+        <v>51</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>7</v>
@@ -18372,18 +20166,18 @@
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>228</v>
+        <v>51</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
@@ -18392,18 +20186,18 @@
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>229</v>
+        <v>147</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>7</v>
@@ -18412,58 +20206,58 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>177</v>
+        <v>150</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="5" t="s">
+      <c r="F51" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
@@ -18472,18 +20266,18 @@
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>232</v>
+        <v>184</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>7</v>
@@ -18492,18 +20286,18 @@
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>234</v>
+        <v>51</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>7</v>
@@ -18512,59 +20306,59 @@
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="F55" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E57" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="B58" s="2" t="s">
         <v>7</v>
       </c>
@@ -18572,75 +20366,18 @@
         <v>8</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E59" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F59" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E61" s="1">
+        <v>51</v>
+      </c>
+      <c r="E58" s="1">
         <v>30.0</v>
       </c>
-      <c r="F61" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
+      <c r="F58" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1"/>
     <row r="64" ht="15.75" customHeight="1"/>
@@ -19532,9 +21269,6 @@
     <row r="950" ht="15.75" customHeight="1"/>
     <row r="951" ht="15.75" customHeight="1"/>
     <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E6"/>
@@ -19756,7 +21490,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -19804,7 +21538,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -19813,18 +21547,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -19833,18 +21567,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="s">
-        <v>244</v>
+      <c r="A15" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -19853,18 +21587,18 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>245</v>
+        <v>51</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -19873,37 +21607,75 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>249</v>
+        <v>242</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="B19" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F19" s="37" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>

--- a/on-demand_attributes.xlsx
+++ b/on-demand_attributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="292">
   <si>
     <t>Path</t>
   </si>
@@ -173,6 +173,18 @@
     <t>Describes the GPS co-ordinates of this location.</t>
   </si>
   <si>
+    <t>message.intent.fulfillment.vehicle.category</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>CAB</t>
+  </si>
+  <si>
+    <t>Describes the vehicle category.</t>
+  </si>
+  <si>
     <t>on_search</t>
   </si>
   <si>
@@ -218,9 +230,6 @@
     <t>message.catalog.providers.locations.id</t>
   </si>
   <si>
-    <t>optional</t>
-  </si>
-  <si>
     <t>d3ebf05b</t>
   </si>
   <si>
@@ -258,12 +267,6 @@
   </si>
   <si>
     <t>message.catalog.providers.fulfillments.vehicle.category</t>
-  </si>
-  <si>
-    <t>CAB</t>
-  </si>
-  <si>
-    <t>Describes the vehicle category.</t>
   </si>
   <si>
     <t>message.catalog.providers.items.id</t>
@@ -904,7 +907,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -933,6 +936,11 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Ui-monospace"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -996,7 +1004,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1014,6 +1022,13 @@
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1033,52 +1048,48 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1093,7 +1104,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1654,8 +1665,30 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -2865,7 +2898,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -2913,7 +2946,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -2922,18 +2955,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -2942,18 +2975,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -2962,18 +2995,18 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>81</v>
+        <v>55</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -2982,18 +3015,18 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>55</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
-        <v>110</v>
+      <c r="A17" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -3002,18 +3035,18 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>55</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -3022,18 +3055,18 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -3042,38 +3075,38 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>254</v>
+        <v>170</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>117</v>
+        <v>68</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -3082,38 +3115,38 @@
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -3122,18 +3155,18 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>157</v>
+      <c r="F23" s="14" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -3142,18 +3175,18 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>256</v>
+        <v>125</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
@@ -3162,18 +3195,18 @@
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
@@ -3182,18 +3215,18 @@
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E26" s="1">
         <v>9.898657512E9</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
@@ -3202,18 +3235,18 @@
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
@@ -3222,18 +3255,18 @@
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E28" s="1">
         <v>7.845981268E9</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
@@ -3242,18 +3275,18 @@
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
@@ -3262,18 +3295,18 @@
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F30" s="14" t="s">
         <v>233</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
@@ -3282,18 +3315,18 @@
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>223</v>
+        <v>260</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="20" t="s">
-        <v>260</v>
+      <c r="A32" s="21" t="s">
+        <v>261</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
@@ -3302,18 +3335,18 @@
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F32" s="11" t="s">
         <v>262</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
@@ -3322,18 +3355,18 @@
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E33" s="1">
         <v>60.0</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>93</v>
+      <c r="F33" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
@@ -3342,18 +3375,18 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
@@ -3362,18 +3395,18 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
@@ -3382,18 +3415,18 @@
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
@@ -3402,18 +3435,18 @@
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E37" s="1">
         <v>120.0</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
@@ -3422,18 +3455,18 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F38" s="16" t="s">
         <v>137</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
@@ -3442,18 +3475,18 @@
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>200</v>
+        <v>55</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
@@ -3462,18 +3495,18 @@
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>235</v>
+        <v>151</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
@@ -3482,18 +3515,18 @@
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F41" s="11" t="s">
         <v>266</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>7</v>
@@ -3502,18 +3535,18 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42" s="38" t="s">
-        <v>268</v>
+        <v>91</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>7</v>
@@ -3522,18 +3555,18 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E43" s="1">
         <v>60.0</v>
       </c>
-      <c r="F43" s="38" t="s">
-        <v>270</v>
+      <c r="F43" s="39" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>7</v>
@@ -3542,18 +3575,18 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
@@ -3562,18 +3595,18 @@
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
@@ -3582,38 +3615,38 @@
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="F46" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="13" t="s">
         <v>273</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>7</v>
@@ -3622,18 +3655,18 @@
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E48" s="1">
         <v>2.0</v>
       </c>
-      <c r="F48" s="15" t="s">
-        <v>223</v>
+      <c r="F48" s="17" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
@@ -3642,18 +3675,18 @@
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F49" s="16" t="s">
         <v>190</v>
       </c>
+      <c r="F49" s="18" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="14" t="s">
-        <v>191</v>
+      <c r="A50" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>7</v>
@@ -3662,18 +3695,18 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E50" s="1">
         <v>2.0</v>
       </c>
-      <c r="F50" s="33" t="s">
-        <v>192</v>
+      <c r="F50" s="34" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="14" t="s">
-        <v>193</v>
+      <c r="A51" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>7</v>
@@ -3682,18 +3715,18 @@
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>128</v>
+        <v>91</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="14" t="s">
-        <v>236</v>
+      <c r="A52" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>7</v>
@@ -3702,13 +3735,13 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E52" s="1">
         <v>30.0</v>
       </c>
-      <c r="F52" s="16" t="s">
-        <v>93</v>
+      <c r="F52" s="18" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1"/>
@@ -4670,7 +4703,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -4850,7 +4883,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -4898,7 +4931,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -4907,18 +4940,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -4927,18 +4960,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
-        <v>238</v>
+      <c r="A15" s="16" t="s">
+        <v>239</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -4947,13 +4980,13 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>239</v>
+        <v>55</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -5977,7 +6010,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -6157,7 +6190,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -6205,7 +6238,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -6214,18 +6247,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -6234,18 +6267,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -6254,18 +6287,18 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>81</v>
+        <v>55</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -6274,18 +6307,18 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>223</v>
+        <v>55</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
-        <v>110</v>
+      <c r="A17" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -6294,18 +6327,18 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>223</v>
+        <v>55</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -6314,18 +6347,18 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -6334,78 +6367,78 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E19" s="5">
         <v>60.0</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>270</v>
+      <c r="F19" s="14" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E20" s="1">
         <v>176.0</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>212</v>
+      <c r="F20" s="17" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E21" s="1">
         <v>50.0</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>213</v>
+      <c r="F21" s="17" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>117</v>
+        <v>68</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -6414,18 +6447,18 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>119</v>
+        <v>73</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -6434,18 +6467,18 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="15" t="s">
         <v>170</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
@@ -6454,38 +6487,38 @@
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>140</v>
+        <v>65</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
@@ -6494,18 +6527,18 @@
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>157</v>
+      <c r="F27" s="14" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
@@ -6514,18 +6547,18 @@
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>256</v>
+        <v>125</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
@@ -6534,58 +6567,58 @@
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
@@ -6594,18 +6627,18 @@
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F32" s="14" t="s">
         <v>233</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
@@ -6614,18 +6647,18 @@
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
@@ -6634,18 +6667,18 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E34" s="1">
         <v>9.898657512E9</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
@@ -6654,18 +6687,18 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
@@ -6674,18 +6707,18 @@
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E36" s="1">
         <v>7.845981268E9</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
@@ -6694,18 +6727,18 @@
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F37" s="11" t="s">
         <v>281</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
@@ -6714,18 +6747,18 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>223</v>
+        <v>260</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
@@ -6734,18 +6767,18 @@
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F39" s="11" t="s">
         <v>262</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
@@ -6754,18 +6787,18 @@
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E40" s="1">
         <v>60.0</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>93</v>
+      <c r="F40" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
@@ -6774,18 +6807,18 @@
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>128</v>
+        <v>91</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>7</v>
@@ -6794,18 +6827,18 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F42" s="11" t="s">
         <v>131</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>7</v>
@@ -6814,18 +6847,18 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>7</v>
@@ -6834,18 +6867,18 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E44" s="1">
         <v>120.0</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>134</v>
+      <c r="F44" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
@@ -6854,18 +6887,18 @@
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F45" s="16" t="s">
         <v>137</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
@@ -6874,18 +6907,18 @@
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>200</v>
+        <v>284</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>7</v>
@@ -6894,18 +6927,18 @@
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>145</v>
+      <c r="F47" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>7</v>
@@ -6914,18 +6947,18 @@
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
@@ -6934,18 +6967,18 @@
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>7</v>
@@ -6954,18 +6987,18 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>7</v>
@@ -6974,18 +7007,18 @@
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>7</v>
@@ -6994,18 +7027,18 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
@@ -7014,18 +7047,18 @@
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E53" s="1">
         <v>2.0</v>
       </c>
-      <c r="F53" s="15" t="s">
-        <v>223</v>
+      <c r="F53" s="17" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>7</v>
@@ -7034,18 +7067,18 @@
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F54" s="16" t="s">
         <v>190</v>
       </c>
+      <c r="F54" s="18" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="14" t="s">
-        <v>191</v>
+      <c r="A55" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>7</v>
@@ -7054,18 +7087,18 @@
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E55" s="1">
         <v>2.0</v>
       </c>
-      <c r="F55" s="33" t="s">
-        <v>192</v>
+      <c r="F55" s="34" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="14" t="s">
-        <v>193</v>
+      <c r="A56" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>7</v>
@@ -7074,18 +7107,18 @@
         <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>128</v>
+        <v>91</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="14" t="s">
-        <v>236</v>
+      <c r="A57" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>7</v>
@@ -7094,13 +7127,13 @@
         <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E57" s="1">
         <v>30.0</v>
       </c>
-      <c r="F57" s="16" t="s">
-        <v>93</v>
+      <c r="F57" s="18" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1"/>
@@ -8042,7 +8075,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -8222,7 +8255,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -8270,7 +8303,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -8279,18 +8312,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -8299,18 +8332,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="39" t="s">
-        <v>195</v>
+      <c r="A15" s="40" t="s">
+        <v>196</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -8319,18 +8352,18 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="7">
+        <v>55</v>
+      </c>
+      <c r="E15" s="10">
         <v>1.0</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -8342,10 +8375,10 @@
         <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -8390,7 +8423,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -8570,7 +8603,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -8618,7 +8651,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -8627,18 +8660,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -8647,18 +8680,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -8667,18 +8700,18 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>81</v>
+        <v>55</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -8687,18 +8720,18 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>223</v>
+        <v>55</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
-        <v>110</v>
+      <c r="A17" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -8707,18 +8740,18 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>223</v>
+        <v>55</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -8727,18 +8760,18 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -8747,78 +8780,78 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E19" s="5">
         <v>60.0</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>270</v>
+      <c r="F19" s="14" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E20" s="1">
         <v>176.0</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>212</v>
+      <c r="F20" s="17" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E21" s="1">
         <v>50.0</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>213</v>
+      <c r="F21" s="17" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>117</v>
+        <v>68</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -8827,18 +8860,18 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>119</v>
+        <v>73</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -8847,18 +8880,18 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="15" t="s">
         <v>170</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
@@ -8867,38 +8900,38 @@
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>140</v>
+        <v>65</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
@@ -8907,18 +8940,18 @@
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>157</v>
+      <c r="F27" s="14" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
@@ -8927,18 +8960,18 @@
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>256</v>
+        <v>125</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
@@ -8947,58 +8980,58 @@
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
@@ -9007,18 +9040,18 @@
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F32" s="14" t="s">
         <v>233</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
@@ -9030,15 +9063,15 @@
         <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
@@ -9047,18 +9080,18 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E34" s="1">
         <v>9.898657512E9</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
@@ -9067,18 +9100,18 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
@@ -9087,18 +9120,18 @@
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E36" s="1">
         <v>7.845981268E9</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
@@ -9107,18 +9140,18 @@
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F37" s="11" t="s">
         <v>281</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
@@ -9127,18 +9160,18 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>223</v>
+        <v>260</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
@@ -9147,18 +9180,18 @@
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F39" s="11" t="s">
         <v>262</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
@@ -9167,18 +9200,18 @@
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E40" s="1">
         <v>60.0</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>93</v>
+      <c r="F40" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
@@ -9187,18 +9220,18 @@
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>128</v>
+        <v>91</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>7</v>
@@ -9207,18 +9240,18 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F42" s="11" t="s">
         <v>131</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>7</v>
@@ -9227,18 +9260,18 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>7</v>
@@ -9247,18 +9280,18 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E44" s="1">
         <v>120.0</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>134</v>
+      <c r="F44" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
@@ -9267,18 +9300,18 @@
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F45" s="16" t="s">
         <v>137</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
@@ -9287,18 +9320,18 @@
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>200</v>
+        <v>284</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>7</v>
@@ -9307,18 +9340,18 @@
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>145</v>
+      <c r="F47" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>7</v>
@@ -9327,18 +9360,18 @@
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
@@ -9347,18 +9380,18 @@
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>7</v>
@@ -9367,18 +9400,18 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>7</v>
@@ -9387,18 +9420,18 @@
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>7</v>
@@ -9407,18 +9440,18 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
@@ -9427,18 +9460,18 @@
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E53" s="1">
         <v>2.0</v>
       </c>
-      <c r="F53" s="15" t="s">
-        <v>223</v>
+      <c r="F53" s="17" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>7</v>
@@ -9447,18 +9480,18 @@
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F54" s="16" t="s">
         <v>190</v>
       </c>
+      <c r="F54" s="18" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="14" t="s">
-        <v>191</v>
+      <c r="A55" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>7</v>
@@ -9467,18 +9500,18 @@
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E55" s="1">
         <v>2.0</v>
       </c>
-      <c r="F55" s="33" t="s">
-        <v>192</v>
+      <c r="F55" s="34" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="14" t="s">
-        <v>193</v>
+      <c r="A56" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>7</v>
@@ -9487,18 +9520,18 @@
         <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>128</v>
+        <v>91</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="14" t="s">
-        <v>236</v>
+      <c r="A57" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>7</v>
@@ -9507,18 +9540,18 @@
         <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E57" s="1">
         <v>30.0</v>
       </c>
-      <c r="F57" s="16" t="s">
-        <v>93</v>
+      <c r="F57" s="18" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="14" t="s">
-        <v>288</v>
+      <c r="A58" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>7</v>
@@ -9527,13 +9560,13 @@
         <v>8</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="F58" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="25" t="s">
         <v>290</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -9758,7 +9791,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -9806,7 +9839,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -9815,18 +9848,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -9835,18 +9868,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -9855,18 +9888,18 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -9875,58 +9908,58 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>63</v>
+      <c r="A17" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>67</v>
+      <c r="A18" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -9935,18 +9968,18 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>55</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -9955,18 +9988,18 @@
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>74</v>
+        <v>55</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -9975,9 +10008,9 @@
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -9986,7 +10019,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -9995,10 +10028,10 @@
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>48</v>
@@ -10006,7 +10039,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -10015,18 +10048,18 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>79</v>
+      <c r="F23" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -10035,18 +10068,18 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>81</v>
+        <v>55</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
@@ -10055,18 +10088,18 @@
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>84</v>
+        <v>55</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
@@ -10075,18 +10108,18 @@
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>87</v>
+        <v>55</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
@@ -10095,18 +10128,18 @@
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
@@ -10115,78 +10148,78 @@
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="12">
+        <v>55</v>
+      </c>
+      <c r="E28" s="15">
         <v>60.0</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="12">
+        <v>55</v>
+      </c>
+      <c r="E29" s="15">
         <v>176.0</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>95</v>
+      <c r="F29" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="12">
+        <v>55</v>
+      </c>
+      <c r="E30" s="15">
         <v>50.0</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>97</v>
+      <c r="F30" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>99</v>
+        <v>68</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
@@ -10195,13 +10228,13 @@
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -11197,7 +11230,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -11377,7 +11410,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -11425,7 +11458,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -11434,18 +11467,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -11454,18 +11487,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -11474,18 +11507,18 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>81</v>
+        <v>55</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="13" t="s">
-        <v>105</v>
+      <c r="A16" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -11494,13 +11527,13 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -12520,7 +12553,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -12700,7 +12733,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -12748,7 +12781,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -12757,18 +12790,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -12777,18 +12810,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -12797,18 +12830,18 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>81</v>
+        <v>55</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -12817,18 +12850,18 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>55</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="13" t="s">
-        <v>110</v>
+      <c r="A17" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -12837,18 +12870,18 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>55</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -12857,18 +12890,18 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -12877,78 +12910,78 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E19" s="5">
         <v>60.0</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E20" s="1">
         <v>176.0</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>95</v>
+      <c r="F20" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="14" t="s">
-        <v>114</v>
+      <c r="A21" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E21" s="1">
         <v>50.0</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>115</v>
+      <c r="F21" s="12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>117</v>
+        <v>55</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -12957,18 +12990,18 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>119</v>
+        <v>73</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -12977,58 +13010,58 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>73</v>
+        <v>55</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
@@ -13037,7 +13070,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>44</v>
@@ -13048,7 +13081,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
@@ -13057,10 +13090,10 @@
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>48</v>
@@ -13068,7 +13101,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
@@ -13077,18 +13110,18 @@
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
@@ -13097,18 +13130,18 @@
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E30" s="1">
         <v>60.0</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>93</v>
+      <c r="F30" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
@@ -13117,18 +13150,18 @@
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>128</v>
+        <v>91</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
@@ -13137,18 +13170,18 @@
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="11" t="s">
         <v>131</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
@@ -13157,18 +13190,18 @@
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
@@ -13177,18 +13210,18 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E34" s="1">
         <v>120.0</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>134</v>
+      <c r="F34" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
@@ -13197,13 +13230,13 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F35" s="16" t="s">
         <v>137</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1"/>
@@ -14191,7 +14224,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -14371,7 +14404,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -14419,7 +14452,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -14428,18 +14461,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -14448,18 +14481,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -14468,18 +14501,18 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>139</v>
+        <v>55</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
-        <v>105</v>
+      <c r="A16" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -14488,18 +14521,18 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>140</v>
+        <v>65</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -14511,15 +14544,15 @@
         <v>9</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" s="11" t="s">
         <v>143</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -14533,13 +14566,13 @@
       <c r="E18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>145</v>
+      <c r="F18" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -14551,15 +14584,15 @@
         <v>9</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -14571,15 +14604,15 @@
         <v>9</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -14590,18 +14623,18 @@
       <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>119</v>
+      <c r="E21" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -14610,18 +14643,18 @@
       <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>153</v>
+      <c r="E22" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B23" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -14630,18 +14663,18 @@
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="9">
         <v>9.898657512E9</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -14650,18 +14683,18 @@
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>157</v>
+      <c r="F24" s="17" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -14670,58 +14703,58 @@
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>158</v>
+      <c r="E25" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="21" t="s">
+      <c r="A26" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26" s="21" t="s">
+      <c r="E26" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
+      <c r="F26" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -14730,18 +14763,18 @@
       <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="25">
         <v>9.876556789E9</v>
       </c>
-      <c r="F27" s="25" t="s">
-        <v>161</v>
+      <c r="F27" s="26" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -14750,11 +14783,11 @@
       <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="14" t="s">
+      <c r="E28" s="25" t="s">
         <v>163</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1"/>
@@ -15760,7 +15793,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -15940,7 +15973,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -15988,7 +16021,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -15997,18 +16030,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -16017,18 +16050,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -16037,18 +16070,18 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>165</v>
+        <v>55</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -16057,18 +16090,18 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>109</v>
       </c>
+      <c r="F16" s="28" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
-        <v>110</v>
+      <c r="A17" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -16077,18 +16110,18 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -16097,18 +16130,18 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>55</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -16117,78 +16150,78 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E19" s="5">
         <v>60.0</v>
       </c>
-      <c r="F19" s="27" t="s">
-        <v>93</v>
+      <c r="F19" s="28" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E20" s="1">
         <v>176.0</v>
       </c>
-      <c r="F20" s="28" t="s">
-        <v>95</v>
+      <c r="F20" s="29" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="14" t="s">
-        <v>167</v>
+      <c r="A21" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E21" s="1">
         <v>50.0</v>
       </c>
-      <c r="F21" s="28" t="s">
-        <v>115</v>
+      <c r="F21" s="29" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>99</v>
+        <v>55</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -16197,18 +16230,18 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>119</v>
+        <v>73</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -16217,18 +16250,18 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="30" t="s">
         <v>170</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
@@ -16237,38 +16270,38 @@
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>171</v>
+        <v>65</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="27">
-      <c r="A27" s="14" t="s">
-        <v>121</v>
+      <c r="A27" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
@@ -16277,18 +16310,18 @@
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>172</v>
+        <v>76</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
@@ -16297,18 +16330,18 @@
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="29" t="s">
-        <v>157</v>
+      <c r="F28" s="30" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
@@ -16317,18 +16350,18 @@
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="28" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
@@ -16337,38 +16370,38 @@
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E31" s="1">
         <v>60.0</v>
       </c>
-      <c r="F31" s="29" t="s">
-        <v>93</v>
+      <c r="F31" s="30" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
@@ -16377,18 +16410,18 @@
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>128</v>
+        <v>91</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
@@ -16397,18 +16430,18 @@
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="F33" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="32" t="s">
         <v>131</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
@@ -16417,18 +16450,18 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>134</v>
+        <v>55</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
@@ -16437,18 +16470,18 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E35" s="1">
         <v>120.0</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
@@ -16457,18 +16490,18 @@
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F36" s="16" t="s">
         <v>137</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
@@ -16477,18 +16510,18 @@
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>174</v>
+        <v>55</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
@@ -16497,18 +16530,18 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>145</v>
+      <c r="F38" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
@@ -16517,18 +16550,18 @@
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>147</v>
+        <v>55</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>148</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
@@ -16537,18 +16570,18 @@
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>176</v>
+        <v>55</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
@@ -16557,18 +16590,18 @@
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>178</v>
+        <v>55</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>179</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>7</v>
@@ -16577,18 +16610,18 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>181</v>
+        <v>55</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>182</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>7</v>
@@ -16597,18 +16630,18 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>184</v>
+        <v>55</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>185</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>7</v>
@@ -16617,58 +16650,58 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E44" s="1">
         <v>2.0</v>
       </c>
-      <c r="F44" s="28" t="s">
-        <v>187</v>
+      <c r="F44" s="29" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F45" s="32" t="s">
         <v>190</v>
       </c>
+      <c r="F45" s="33" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="14" t="s">
-        <v>191</v>
+      <c r="A46" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E46" s="1">
         <v>2.0</v>
       </c>
-      <c r="F46" s="33" t="s">
-        <v>192</v>
+      <c r="F46" s="34" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="14" t="s">
-        <v>193</v>
+      <c r="A47" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>7</v>
@@ -16677,13 +16710,13 @@
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>128</v>
+        <v>91</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1"/>
@@ -17646,7 +17679,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -17826,7 +17859,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -17874,7 +17907,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -17883,18 +17916,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -17903,18 +17936,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
-        <v>195</v>
+      <c r="A15" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -17923,18 +17956,18 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -17943,18 +17976,18 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>55</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
-        <v>105</v>
+      <c r="A17" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -17963,18 +17996,18 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -17986,15 +18019,15 @@
         <v>9</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -18005,16 +18038,16 @@
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>200</v>
+      <c r="E19" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -18028,13 +18061,13 @@
       <c r="E20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>145</v>
+      <c r="F20" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -18046,15 +18079,15 @@
         <v>9</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -18066,35 +18099,35 @@
         <v>9</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -18103,18 +18136,18 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
@@ -18123,18 +18156,18 @@
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E25" s="1">
         <v>9.898657512E9</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>202</v>
+      <c r="F25" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
@@ -18143,7 +18176,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>44</v>
@@ -18154,7 +18187,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
@@ -18163,18 +18196,18 @@
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="14" t="s">
-        <v>203</v>
+      <c r="A28" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
@@ -18183,18 +18216,18 @@
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="14" t="s">
-        <v>206</v>
+      <c r="A29" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
@@ -18203,18 +18236,18 @@
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E29" s="2">
         <v>232312.0</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
@@ -18223,13 +18256,13 @@
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1"/>
@@ -19229,7 +19262,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -19409,7 +19442,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -19457,7 +19490,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -19466,18 +19499,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -19486,18 +19519,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -19506,18 +19539,18 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>81</v>
+        <v>55</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -19526,18 +19559,18 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
-        <v>110</v>
+      <c r="A17" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -19546,18 +19579,18 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -19566,18 +19599,18 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -19586,78 +19619,78 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E19" s="5">
         <v>60.0</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E20" s="1">
         <v>176.0</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>212</v>
+      <c r="F20" s="17" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E21" s="1">
         <v>50.0</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>213</v>
+      <c r="F21" s="17" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>99</v>
+        <v>68</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -19666,18 +19699,18 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>119</v>
+        <v>73</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -19686,18 +19719,18 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>170</v>
+        <v>215</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
@@ -19706,38 +19739,38 @@
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
@@ -19746,18 +19779,18 @@
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>170</v>
+        <v>215</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
@@ -19766,18 +19799,18 @@
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
@@ -19786,18 +19819,18 @@
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E29" s="1">
         <v>9.898657512E9</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>216</v>
+      <c r="F29" s="7" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
@@ -19806,18 +19839,18 @@
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>218</v>
+        <v>143</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
@@ -19826,18 +19859,18 @@
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E31" s="1">
         <v>7.845981268E9</v>
       </c>
-      <c r="F31" s="14" t="s">
-        <v>220</v>
+      <c r="F31" s="7" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="14" t="s">
-        <v>221</v>
+      <c r="A32" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
@@ -19846,18 +19879,18 @@
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="F32" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="25" t="s">
         <v>223</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
@@ -19866,18 +19899,18 @@
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>157</v>
+        <v>55</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="20" t="s">
-        <v>123</v>
+      <c r="A34" s="21" t="s">
+        <v>124</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
@@ -19886,18 +19919,18 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>158</v>
+        <v>55</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="14" t="s">
-        <v>203</v>
+      <c r="A35" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
@@ -19906,18 +19939,18 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="14" t="s">
-        <v>206</v>
+      <c r="A36" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
@@ -19926,18 +19959,18 @@
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E36" s="2">
         <v>232312.0</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
@@ -19946,18 +19979,18 @@
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
@@ -19966,18 +19999,18 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
@@ -19986,18 +20019,18 @@
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
@@ -20006,38 +20039,38 @@
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F40" s="14" t="s">
         <v>233</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E41" s="1">
         <v>60.0</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>93</v>
+      <c r="F41" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>7</v>
@@ -20046,18 +20079,18 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>128</v>
+        <v>91</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>7</v>
@@ -20066,18 +20099,18 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F43" s="11" t="s">
         <v>131</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>7</v>
@@ -20086,18 +20119,18 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
@@ -20106,18 +20139,18 @@
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E45" s="1">
         <v>120.0</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>134</v>
+      <c r="F45" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
@@ -20126,18 +20159,18 @@
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F46" s="16" t="s">
         <v>137</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>7</v>
@@ -20146,18 +20179,18 @@
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>174</v>
+        <v>55</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>7</v>
@@ -20166,18 +20199,18 @@
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="11" t="s">
-        <v>145</v>
+      <c r="F48" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
@@ -20186,18 +20219,18 @@
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>7</v>
@@ -20206,18 +20239,18 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>235</v>
+        <v>151</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>7</v>
@@ -20226,18 +20259,18 @@
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>7</v>
@@ -20246,18 +20279,18 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
@@ -20266,18 +20299,18 @@
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>7</v>
@@ -20286,18 +20319,18 @@
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E54" s="1">
         <v>2.0</v>
       </c>
-      <c r="F54" s="15" t="s">
-        <v>223</v>
+      <c r="F54" s="17" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>7</v>
@@ -20306,18 +20339,18 @@
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F55" s="16" t="s">
         <v>190</v>
       </c>
+      <c r="F55" s="18" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="14" t="s">
-        <v>191</v>
+      <c r="A56" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>7</v>
@@ -20326,18 +20359,18 @@
         <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E56" s="1">
         <v>2.0</v>
       </c>
-      <c r="F56" s="33" t="s">
-        <v>192</v>
+      <c r="F56" s="34" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="14" t="s">
-        <v>193</v>
+      <c r="A57" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>7</v>
@@ -20346,18 +20379,18 @@
         <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>128</v>
+        <v>91</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="14" t="s">
-        <v>236</v>
+      <c r="A58" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>7</v>
@@ -20366,13 +20399,13 @@
         <v>8</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E58" s="1">
         <v>30.0</v>
       </c>
-      <c r="F58" s="16" t="s">
-        <v>93</v>
+      <c r="F58" s="18" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1"/>
@@ -21490,7 +21523,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -21538,7 +21571,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -21547,18 +21580,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -21567,18 +21600,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
-        <v>238</v>
+      <c r="A15" s="16" t="s">
+        <v>239</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -21587,18 +21620,18 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>239</v>
+        <v>55</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -21607,73 +21640,73 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F16" s="9" t="s">
         <v>243</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>247</v>
+      <c r="A18" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="36" t="s">
+      <c r="A19" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="B19" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="37" t="s">
         <v>252</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
